--- a/Docs/Lab02/Lab02_BBT_TCs_Form.xlsx
+++ b/Docs/Lab02/Lab02_BBT_TCs_Form.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27328"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB3A7DF8-8801-40A2-A9E8-306973178639}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74E79974-72C5-44F2-AF1A-EE7717725C25}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Statement" sheetId="1" r:id="rId1"/>
@@ -25,8 +25,6 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -74,7 +72,7 @@
     <author>Author</author>
   </authors>
   <commentList>
-    <comment ref="I20" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000001000000}">
+    <comment ref="H17" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000001000000}">
       <text>
         <r>
           <rPr>
@@ -98,7 +96,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="N20" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000002000000}">
+    <comment ref="M17" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000002000000}">
       <text>
         <r>
           <rPr>
@@ -128,7 +126,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="118">
   <si>
     <t>VVSS, Info Romana, 2023-2024</t>
   </si>
@@ -164,34 +162,6 @@
   </si>
   <si>
     <t>Informaţiile vor fi preluate din fişiere text.</t>
-  </si>
-  <si>
-    <t>1. Evidenţa filmelor din colecţia personală</t>
-  </si>
-  <si>
-    <t>Un cinefil doreşte să îşi dezvolte un program pentru gestionarea filmelor din colecţia personală. Programul va permite următoarele operaţii:</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>F01.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> adăugarea unui film nou (titlu, regizor, an aparitie, actori, categorie, cuvinte cheie);</t>
-    </r>
   </si>
   <si>
     <t>Observații</t>
@@ -337,9 +307,6 @@
     <t>-</t>
   </si>
   <si>
-    <t>?</t>
-  </si>
-  <si>
     <t xml:space="preserve"> </t>
   </si>
   <si>
@@ -460,9 +427,6 @@
     <t>Re-tested</t>
   </si>
   <si>
-    <t>not yet</t>
-  </si>
-  <si>
     <t>time is String of format hh:mm</t>
   </si>
   <si>
@@ -487,9 +451,6 @@
     <t>Date(11.12.2007)</t>
   </si>
   <si>
-    <t>DateTime(11:30,11.12.2007)</t>
-  </si>
-  <si>
     <t>1,4</t>
   </si>
   <si>
@@ -505,52 +466,16 @@
     <t>"11:30"</t>
   </si>
   <si>
-    <t>error message</t>
-  </si>
-  <si>
     <t>"scoala de soferi"</t>
   </si>
   <si>
     <t>"driving school"</t>
   </si>
   <si>
-    <t>01. time = "11:30"</t>
-  </si>
-  <si>
-    <t>02. time = "11 30"</t>
-  </si>
-  <si>
-    <t>03. time = "11:"</t>
-  </si>
-  <si>
-    <t>04. time = ":30"</t>
-  </si>
-  <si>
-    <t>05. time = ?</t>
-  </si>
-  <si>
-    <t>06. noTimeData = Date(12.07.2006)</t>
-  </si>
-  <si>
-    <t>07. noTimeData = ?</t>
-  </si>
-  <si>
     <t>Date(12.07.2006)</t>
   </si>
   <si>
     <t>DateTime(11:30, 12.07.2006)</t>
-  </si>
-  <si>
-    <t>"03:55"</t>
-  </si>
-  <si>
-    <t>Date(28.01.2001)</t>
-  </si>
-  <si>
-    <t>DateTime(03:55, 28.01.2001)</t>
-  </si>
-  <si>
-    <t>"11:"</t>
   </si>
   <si>
     <t>Denis-Angel Moldovan</t>
@@ -609,16 +534,97 @@
     <t>TC2_ECP</t>
   </si>
   <si>
-    <t>errror message</t>
-  </si>
-  <si>
     <t>error message - compiler</t>
   </si>
   <si>
     <t>TC4_ECP</t>
   </si>
   <si>
-    <t>TC1_BVA, TC2_BVA</t>
+    <t>public Date getDateMergedWithTime(String time, Date noTimeDate)</t>
+  </si>
+  <si>
+    <t>01. Tasks</t>
+  </si>
+  <si>
+    <t>O aplicatie de tip desktop gestioneaza task-urile unei persoane active. Informatiile sunt preluate dintr-un fisier binar sau text. Functionalitatile aplicatiei sunt:</t>
+  </si>
+  <si>
+    <t>F01. Adaugarea unui task nou cu detaliile: descrierea, data si ora de inceput, data si ora de sfarsit. Daca task-ul este repetitiv, atunci se indica intervalul de timp la care se va repeta, dat ca numar de ore si minute. Task-ul poate fi activ sau nu.</t>
+  </si>
+  <si>
+    <t>throw NumberFormatException</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>0 &lt;= hh &lt;=23</t>
+  </si>
+  <si>
+    <t>0 &lt;= mm &lt;=60</t>
+  </si>
+  <si>
+    <t>01. hh = -1</t>
+  </si>
+  <si>
+    <t>02. hh = 0</t>
+  </si>
+  <si>
+    <t>03. hh  = 1</t>
+  </si>
+  <si>
+    <t>04. hh = 22</t>
+  </si>
+  <si>
+    <t>05. hh = 23</t>
+  </si>
+  <si>
+    <t>06. hh = 24</t>
+  </si>
+  <si>
+    <t>07. mm = -1</t>
+  </si>
+  <si>
+    <t>08. mm = 0</t>
+  </si>
+  <si>
+    <t>10. mm = 59</t>
+  </si>
+  <si>
+    <t>09. mm = 1</t>
+  </si>
+  <si>
+    <t>11. mm = 60</t>
+  </si>
+  <si>
+    <t>12. mm = 61</t>
+  </si>
+  <si>
+    <t>"1:30"</t>
+  </si>
+  <si>
+    <t>"03:59"</t>
+  </si>
+  <si>
+    <t>"24:30"</t>
+  </si>
+  <si>
+    <t>"03:61"</t>
+  </si>
+  <si>
+    <t>throw IllegalArgumentException</t>
+  </si>
+  <si>
+    <t>TC1_BVA</t>
+  </si>
+  <si>
+    <t>TC2_BVA</t>
+  </si>
+  <si>
+    <t>DateTime(03:59, 12.07.2006)</t>
+  </si>
+  <si>
+    <t>DateTime(00:30, 12.08.2006)</t>
   </si>
 </sst>
 </file>
@@ -823,7 +829,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="33">
+  <borders count="35">
     <border>
       <left/>
       <right/>
@@ -1245,72 +1251,41 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="double">
+        <color indexed="64"/>
+      </top>
+      <bottom style="double">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="double">
+        <color indexed="64"/>
+      </top>
+      <bottom style="double">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="125">
+  <cellXfs count="99">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1318,8 +1293,11 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -1336,256 +1314,254 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="20" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="20" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="20" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1894,10 +1870,10 @@
   <sheetPr>
     <tabColor rgb="FF0070C0"/>
   </sheetPr>
-  <dimension ref="A1:O26"/>
+  <dimension ref="A1:O27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I28" sqref="I28"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1910,24 +1886,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="C1" s="34" t="s">
+      <c r="C1" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="35"/>
-      <c r="E1" s="35"/>
-      <c r="F1" s="36"/>
-      <c r="H1" s="31" t="s">
+      <c r="D1" s="13"/>
+      <c r="E1" s="13"/>
+      <c r="F1" s="14"/>
+      <c r="H1" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="I1" s="31"/>
-      <c r="J1" s="31"/>
+      <c r="I1" s="8"/>
+      <c r="J1" s="8"/>
     </row>
     <row r="2" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="H2" s="37" t="s">
+      <c r="H2" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="I2" s="37"/>
-      <c r="J2" s="37"/>
+      <c r="I2" s="15"/>
+      <c r="J2" s="15"/>
     </row>
     <row r="3" spans="2:10" x14ac:dyDescent="0.25">
       <c r="H3" s="2"/>
@@ -1943,7 +1919,7 @@
         <v>5</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>98</v>
+        <v>80</v>
       </c>
       <c r="J4" s="2">
         <v>234</v>
@@ -1954,14 +1930,14 @@
         <v>6</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>99</v>
+        <v>81</v>
       </c>
       <c r="J5" s="2">
         <v>234</v>
       </c>
     </row>
     <row r="6" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B6" s="19"/>
+      <c r="B6" s="3"/>
       <c r="H6" s="2" t="s">
         <v>7</v>
       </c>
@@ -1970,7 +1946,7 @@
     </row>
     <row r="7" spans="2:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="8" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B8" s="29" t="s">
+      <c r="B8" s="6" t="s">
         <v>8</v>
       </c>
     </row>
@@ -2003,7 +1979,7 @@
     </row>
     <row r="14" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
-        <v>12</v>
+        <v>90</v>
       </c>
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
@@ -2011,7 +1987,7 @@
     </row>
     <row r="15" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
-        <v>13</v>
+        <v>91</v>
       </c>
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
@@ -2019,57 +1995,48 @@
     </row>
     <row r="16" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
-        <v>14</v>
+        <v>92</v>
       </c>
       <c r="C16" s="1"/>
       <c r="D16" s="1"/>
       <c r="E16" s="1"/>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B17" s="1"/>
+      <c r="B17" t="s">
+        <v>89</v>
+      </c>
+      <c r="C17" s="1"/>
       <c r="D17" s="1"/>
       <c r="E17" s="1"/>
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B18" s="29" t="s">
-        <v>15</v>
-      </c>
+      <c r="B18" s="1"/>
+      <c r="D18" s="1"/>
+      <c r="E18" s="1"/>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B19" s="1" t="s">
-        <v>16</v>
+      <c r="B19" s="6" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="C20" s="27" t="s">
-        <v>17</v>
+      <c r="B20" s="1" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B21" s="1" t="s">
-        <v>18</v>
+      <c r="C21" s="4" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B22" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D22" s="1"/>
-      <c r="E22" s="1"/>
-      <c r="F22" s="1"/>
-      <c r="G22" s="1"/>
-      <c r="H22" s="1"/>
-      <c r="I22" s="1"/>
-      <c r="J22" s="1"/>
-      <c r="K22" s="1"/>
-      <c r="L22" s="1"/>
-      <c r="M22" s="1"/>
-      <c r="N22" s="1"/>
-      <c r="O22" s="1"/>
+        <v>15</v>
+      </c>
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B23" s="1" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="D23" s="1"/>
       <c r="E23" s="1"/>
@@ -2084,30 +2051,47 @@
       <c r="N23" s="1"/>
       <c r="O23" s="1"/>
     </row>
-    <row r="24" spans="1:15" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="28"/>
-      <c r="B24" s="33" t="s">
-        <v>21</v>
-      </c>
-      <c r="C24" s="33"/>
-      <c r="D24" s="33"/>
-      <c r="E24" s="33"/>
-      <c r="F24" s="33"/>
-      <c r="G24" s="33"/>
-      <c r="H24" s="33"/>
-      <c r="I24" s="33"/>
-      <c r="J24" s="33"/>
-      <c r="K24" s="33"/>
-      <c r="L24" s="33"/>
-      <c r="M24" s="33"/>
-      <c r="N24" s="33"/>
-    </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="C26" s="30"/>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B24" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D24" s="1"/>
+      <c r="E24" s="1"/>
+      <c r="F24" s="1"/>
+      <c r="G24" s="1"/>
+      <c r="H24" s="1"/>
+      <c r="I24" s="1"/>
+      <c r="J24" s="1"/>
+      <c r="K24" s="1"/>
+      <c r="L24" s="1"/>
+      <c r="M24" s="1"/>
+      <c r="N24" s="1"/>
+      <c r="O24" s="1"/>
+    </row>
+    <row r="25" spans="1:15" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="5"/>
+      <c r="B25" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="C25" s="11"/>
+      <c r="D25" s="11"/>
+      <c r="E25" s="11"/>
+      <c r="F25" s="11"/>
+      <c r="G25" s="11"/>
+      <c r="H25" s="11"/>
+      <c r="I25" s="11"/>
+      <c r="J25" s="11"/>
+      <c r="K25" s="11"/>
+      <c r="L25" s="11"/>
+      <c r="M25" s="11"/>
+      <c r="N25" s="11"/>
+    </row>
+    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="C27" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="3">
-    <mergeCell ref="B24:N24"/>
+    <mergeCell ref="B25:N25"/>
     <mergeCell ref="C1:F1"/>
     <mergeCell ref="H2:J2"/>
   </mergeCells>
@@ -2123,361 +2107,384 @@
   </sheetPr>
   <dimension ref="B1:N23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E31" sqref="E31"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O13" sqref="O13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="18.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="5.85546875" customWidth="1"/>
-    <col min="7" max="7" width="8" customWidth="1"/>
-    <col min="8" max="8" width="11.85546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="25.5703125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="22.5703125" customWidth="1"/>
-    <col min="12" max="12" width="21.28515625" customWidth="1"/>
+    <col min="1" max="1" width="9.140625" style="67"/>
+    <col min="2" max="2" width="10.140625" style="67" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="18.140625" style="67" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.85546875" style="67" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="5.85546875" style="67" customWidth="1"/>
+    <col min="7" max="7" width="8" style="67" customWidth="1"/>
+    <col min="8" max="8" width="11.85546875" style="67" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.7109375" style="67" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="25.5703125" style="67" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="22.5703125" style="67" customWidth="1"/>
+    <col min="12" max="12" width="21.28515625" style="67" customWidth="1"/>
+    <col min="13" max="13" width="9.140625" style="67"/>
+    <col min="14" max="14" width="24.85546875" style="67" customWidth="1"/>
+    <col min="15" max="16384" width="9.140625" style="67"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B1" s="34" t="s">
+      <c r="B1" s="64" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="35"/>
-      <c r="D1" s="35"/>
-      <c r="E1" s="36"/>
+      <c r="C1" s="65"/>
+      <c r="D1" s="65"/>
+      <c r="E1" s="66"/>
     </row>
     <row r="3" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B3" s="107" t="s">
-        <v>100</v>
-      </c>
-      <c r="C3" s="52"/>
-      <c r="D3" s="52"/>
-      <c r="E3" s="52"/>
-      <c r="F3" s="52"/>
-      <c r="G3" s="53"/>
+      <c r="B3" s="89" t="s">
+        <v>82</v>
+      </c>
+      <c r="C3" s="82"/>
+      <c r="D3" s="82"/>
+      <c r="E3" s="82"/>
+      <c r="F3" s="82"/>
+      <c r="G3" s="47"/>
     </row>
     <row r="5" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B5" s="54" t="s">
+      <c r="B5" s="91" t="s">
+        <v>19</v>
+      </c>
+      <c r="C5" s="91"/>
+      <c r="D5" s="91"/>
+      <c r="E5" s="91"/>
+      <c r="I5" s="84" t="s">
+        <v>20</v>
+      </c>
+      <c r="J5" s="84"/>
+      <c r="K5" s="84"/>
+      <c r="L5" s="84"/>
+      <c r="M5" s="84"/>
+      <c r="N5" s="84"/>
+    </row>
+    <row r="6" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B6" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="C6" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="C5" s="54"/>
-      <c r="D5" s="54"/>
-      <c r="E5" s="54"/>
-      <c r="I5" s="55" t="s">
+      <c r="D6" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="J5" s="55"/>
-      <c r="K5" s="55"/>
-      <c r="L5" s="55"/>
-      <c r="M5" s="55"/>
-      <c r="N5" s="55"/>
-    </row>
-    <row r="6" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B6" s="12" t="s">
+      <c r="E6" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="C6" s="12" t="s">
+      <c r="I6" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="D6" s="12" t="s">
+      <c r="J6" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="E6" s="12" t="s">
+      <c r="K6" s="34" t="s">
         <v>27</v>
       </c>
-      <c r="I6" s="56" t="s">
+      <c r="L6" s="34"/>
+      <c r="M6" s="26" t="s">
         <v>28</v>
       </c>
-      <c r="J6" s="45" t="s">
+      <c r="N6" s="26"/>
+    </row>
+    <row r="7" spans="2:14" ht="30" x14ac:dyDescent="0.25">
+      <c r="B7" s="45">
+        <v>1</v>
+      </c>
+      <c r="C7" s="92" t="s">
+        <v>63</v>
+      </c>
+      <c r="D7" s="69" t="s">
+        <v>63</v>
+      </c>
+      <c r="E7" s="45"/>
+      <c r="I7" s="17"/>
+      <c r="J7" s="17"/>
+      <c r="K7" s="45" t="s">
+        <v>68</v>
+      </c>
+      <c r="L7" s="67" t="s">
+        <v>69</v>
+      </c>
+      <c r="M7" s="24" t="s">
         <v>29</v>
       </c>
-      <c r="K6" s="48" t="s">
-        <v>30</v>
-      </c>
-      <c r="L6" s="48"/>
-      <c r="M6" s="47" t="s">
+      <c r="N7" s="35"/>
+    </row>
+    <row r="8" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="45">
+        <v>2</v>
+      </c>
+      <c r="C8" s="92"/>
+      <c r="D8" s="69"/>
+      <c r="E8" s="45" t="s">
+        <v>64</v>
+      </c>
+      <c r="I8" s="10">
+        <v>1</v>
+      </c>
+      <c r="J8" s="45" t="s">
+        <v>71</v>
+      </c>
+      <c r="K8" s="45" t="s">
+        <v>109</v>
+      </c>
+      <c r="L8" s="45" t="s">
+        <v>78</v>
+      </c>
+      <c r="M8" s="46" t="s">
+        <v>79</v>
+      </c>
+      <c r="N8" s="47"/>
+    </row>
+    <row r="9" spans="2:14" ht="30" x14ac:dyDescent="0.25">
+      <c r="B9" s="45">
+        <v>3</v>
+      </c>
+      <c r="C9" s="92"/>
+      <c r="D9" s="45"/>
+      <c r="E9" s="45" t="s">
+        <v>65</v>
+      </c>
+      <c r="I9" s="10">
+        <v>2</v>
+      </c>
+      <c r="J9" s="45" t="s">
+        <v>72</v>
+      </c>
+      <c r="K9" s="45">
+        <v>5</v>
+      </c>
+      <c r="L9" s="90" t="s">
+        <v>70</v>
+      </c>
+      <c r="M9" s="46" t="s">
+        <v>84</v>
+      </c>
+      <c r="N9" s="47"/>
+    </row>
+    <row r="10" spans="2:14" ht="30" x14ac:dyDescent="0.25">
+      <c r="B10" s="45">
+        <v>4</v>
+      </c>
+      <c r="C10" s="92" t="s">
+        <v>66</v>
+      </c>
+      <c r="D10" s="45" t="s">
+        <v>66</v>
+      </c>
+      <c r="E10" s="45"/>
+      <c r="I10" s="10">
+        <v>3</v>
+      </c>
+      <c r="J10" s="45" t="s">
+        <v>73</v>
+      </c>
+      <c r="K10" s="45" t="s">
+        <v>76</v>
+      </c>
+      <c r="L10" s="90" t="s">
+        <v>70</v>
+      </c>
+      <c r="M10" s="46" t="s">
+        <v>93</v>
+      </c>
+      <c r="N10" s="47"/>
+    </row>
+    <row r="11" spans="2:14" ht="30" x14ac:dyDescent="0.25">
+      <c r="B11" s="45">
+        <v>5</v>
+      </c>
+      <c r="C11" s="92"/>
+      <c r="D11" s="45"/>
+      <c r="E11" s="45" t="s">
+        <v>67</v>
+      </c>
+      <c r="I11" s="10">
+        <v>4</v>
+      </c>
+      <c r="J11" s="45" t="s">
+        <v>74</v>
+      </c>
+      <c r="K11" s="69" t="s">
+        <v>75</v>
+      </c>
+      <c r="L11" s="90" t="s">
+        <v>77</v>
+      </c>
+      <c r="M11" s="46" t="s">
+        <v>84</v>
+      </c>
+      <c r="N11" s="47"/>
+    </row>
+    <row r="12" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="45">
+        <v>6</v>
+      </c>
+      <c r="C12" s="92"/>
+      <c r="D12" s="45"/>
+      <c r="E12" s="45"/>
+      <c r="I12" s="10">
+        <v>5</v>
+      </c>
+      <c r="J12" s="45"/>
+      <c r="K12" s="45"/>
+      <c r="L12" s="45"/>
+      <c r="M12" s="46"/>
+      <c r="N12" s="47"/>
+    </row>
+    <row r="13" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B13" s="45">
+        <v>7</v>
+      </c>
+      <c r="C13" s="92"/>
+      <c r="D13" s="45"/>
+      <c r="E13" s="45"/>
+      <c r="I13" s="10">
+        <v>6</v>
+      </c>
+      <c r="J13" s="45"/>
+      <c r="K13" s="45"/>
+      <c r="L13" s="90"/>
+      <c r="M13" s="46"/>
+      <c r="N13" s="47"/>
+    </row>
+    <row r="14" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B14" s="45">
+        <v>8</v>
+      </c>
+      <c r="C14" s="18"/>
+      <c r="D14" s="45"/>
+      <c r="E14" s="45"/>
+      <c r="I14" s="10">
+        <v>7</v>
+      </c>
+      <c r="J14" s="45"/>
+      <c r="K14" s="45"/>
+      <c r="L14" s="90"/>
+      <c r="M14" s="46"/>
+      <c r="N14" s="47"/>
+    </row>
+    <row r="15" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B15" s="45">
+        <v>9</v>
+      </c>
+      <c r="C15" s="20"/>
+      <c r="D15" s="45"/>
+      <c r="E15" s="45"/>
+      <c r="I15" s="10">
+        <v>8</v>
+      </c>
+      <c r="J15" s="45"/>
+      <c r="K15" s="45"/>
+      <c r="L15" s="90"/>
+      <c r="M15" s="46"/>
+      <c r="N15" s="47"/>
+    </row>
+    <row r="16" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B16" s="45">
+        <v>10</v>
+      </c>
+      <c r="C16" s="92"/>
+      <c r="D16" s="45"/>
+      <c r="E16" s="45"/>
+      <c r="I16" s="10"/>
+      <c r="J16" s="45"/>
+      <c r="K16" s="45"/>
+      <c r="L16" s="90"/>
+      <c r="M16" s="46"/>
+      <c r="N16" s="47"/>
+    </row>
+    <row r="17" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B17" s="45">
+        <v>11</v>
+      </c>
+      <c r="C17" s="92"/>
+      <c r="D17" s="45"/>
+      <c r="E17" s="45"/>
+      <c r="I17" s="93"/>
+      <c r="J17" s="94"/>
+      <c r="K17" s="94"/>
+      <c r="L17" s="90"/>
+      <c r="M17" s="95"/>
+      <c r="N17" s="96"/>
+    </row>
+    <row r="18" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B18" s="45">
+        <v>12</v>
+      </c>
+      <c r="C18" s="92"/>
+      <c r="D18" s="45"/>
+      <c r="E18" s="45"/>
+      <c r="I18" s="93"/>
+      <c r="J18" s="94"/>
+      <c r="K18" s="94"/>
+      <c r="L18" s="90"/>
+      <c r="M18" s="95"/>
+      <c r="N18" s="96"/>
+    </row>
+    <row r="19" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B19" s="45">
+        <v>13</v>
+      </c>
+      <c r="C19" s="92"/>
+      <c r="D19" s="45"/>
+      <c r="E19" s="45"/>
+      <c r="I19" s="10"/>
+      <c r="J19" s="45"/>
+      <c r="K19" s="45"/>
+      <c r="L19" s="90"/>
+      <c r="M19" s="95"/>
+      <c r="N19" s="96"/>
+    </row>
+    <row r="20" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B20" s="45">
+        <v>14</v>
+      </c>
+      <c r="C20" s="92"/>
+      <c r="D20" s="45"/>
+      <c r="E20" s="45"/>
+    </row>
+    <row r="21" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B21" s="45">
+        <v>15</v>
+      </c>
+      <c r="C21" s="92"/>
+      <c r="D21" s="45"/>
+      <c r="E21" s="45"/>
+    </row>
+    <row r="23" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="D23" s="67" t="s">
         <v>31</v>
       </c>
-      <c r="N6" s="47"/>
-    </row>
-    <row r="7" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B7" s="4">
-        <v>1</v>
-      </c>
-      <c r="C7" s="49" t="s">
-        <v>68</v>
-      </c>
-      <c r="D7" s="98" t="s">
-        <v>68</v>
-      </c>
-      <c r="E7" s="4"/>
-      <c r="I7" s="57"/>
-      <c r="J7" s="46"/>
-      <c r="K7" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="L7" t="s">
-        <v>74</v>
-      </c>
-      <c r="M7" s="43" t="s">
-        <v>32</v>
-      </c>
-      <c r="N7" s="44"/>
-    </row>
-    <row r="8" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B8" s="4">
-        <v>2</v>
-      </c>
-      <c r="C8" s="49"/>
-      <c r="D8" s="98"/>
-      <c r="E8" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="I8" s="12">
-        <v>1</v>
-      </c>
-      <c r="J8" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="K8" s="99" t="s">
-        <v>81</v>
-      </c>
-      <c r="L8" s="32" t="s">
-        <v>75</v>
-      </c>
-      <c r="M8" s="39" t="s">
-        <v>76</v>
-      </c>
-      <c r="N8" s="40"/>
-    </row>
-    <row r="9" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B9" s="4">
-        <v>3</v>
-      </c>
-      <c r="C9" s="49"/>
-      <c r="D9" s="4"/>
-      <c r="E9" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="I9" s="12">
-        <v>2</v>
-      </c>
-      <c r="J9" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="K9" s="2">
-        <v>5</v>
-      </c>
-      <c r="L9" s="32" t="s">
-        <v>75</v>
-      </c>
-      <c r="M9" s="39" t="s">
-        <v>102</v>
-      </c>
-      <c r="N9" s="40"/>
-    </row>
-    <row r="10" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B10" s="4">
-        <v>4</v>
-      </c>
-      <c r="C10" s="49" t="s">
-        <v>71</v>
-      </c>
-      <c r="D10" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="E10" s="4"/>
-      <c r="I10" s="12">
-        <v>3</v>
-      </c>
-      <c r="J10" s="100" t="s">
-        <v>79</v>
-      </c>
-      <c r="K10" s="100" t="s">
-        <v>83</v>
-      </c>
-      <c r="L10" s="32" t="s">
-        <v>75</v>
-      </c>
-      <c r="M10" s="102" t="s">
-        <v>82</v>
-      </c>
-      <c r="N10" s="103"/>
-    </row>
-    <row r="11" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B11" s="4">
-        <v>5</v>
-      </c>
-      <c r="C11" s="49"/>
-      <c r="D11" s="4"/>
-      <c r="E11" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="I11" s="12">
-        <v>4</v>
-      </c>
-      <c r="J11" s="100" t="s">
-        <v>80</v>
-      </c>
-      <c r="K11" s="99" t="s">
-        <v>81</v>
-      </c>
-      <c r="L11" s="101" t="s">
-        <v>84</v>
-      </c>
-      <c r="M11" s="102" t="s">
-        <v>102</v>
-      </c>
-      <c r="N11" s="103"/>
-    </row>
-    <row r="12" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="4">
-        <v>6</v>
-      </c>
-      <c r="C12" s="49"/>
-      <c r="D12" s="4"/>
-      <c r="E12" s="4"/>
-      <c r="I12" s="12">
-        <v>5</v>
-      </c>
-      <c r="J12" s="100"/>
-      <c r="K12" s="100"/>
-      <c r="L12" s="100"/>
-      <c r="M12" s="102"/>
-      <c r="N12" s="103"/>
-    </row>
-    <row r="13" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B13" s="4">
-        <v>7</v>
-      </c>
-      <c r="C13" s="49"/>
-      <c r="D13" s="4"/>
-      <c r="E13" s="4"/>
-      <c r="I13" s="12">
-        <v>6</v>
-      </c>
-      <c r="J13" s="100"/>
-      <c r="K13" s="100"/>
-      <c r="L13" s="101"/>
-      <c r="M13" s="102"/>
-      <c r="N13" s="103"/>
-    </row>
-    <row r="14" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B14" s="4">
-        <v>8</v>
-      </c>
-      <c r="C14" s="50"/>
-      <c r="D14" s="4"/>
-      <c r="E14" s="4"/>
-      <c r="I14" s="12">
-        <v>7</v>
-      </c>
-      <c r="J14" s="100"/>
-      <c r="K14" s="100"/>
-      <c r="L14" s="104"/>
-      <c r="M14" s="102"/>
-      <c r="N14" s="103"/>
-    </row>
-    <row r="15" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B15" s="4">
-        <v>9</v>
-      </c>
-      <c r="C15" s="51"/>
-      <c r="D15" s="4"/>
-      <c r="E15" s="4"/>
-      <c r="I15" s="12">
-        <v>8</v>
-      </c>
-      <c r="J15" s="100"/>
-      <c r="K15" s="100"/>
-      <c r="L15" s="101"/>
-      <c r="M15" s="102"/>
-      <c r="N15" s="103"/>
-    </row>
-    <row r="16" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B16" s="4">
-        <v>10</v>
-      </c>
-      <c r="C16" s="49"/>
-      <c r="D16" s="4"/>
-      <c r="E16" s="4"/>
-      <c r="I16" s="12"/>
-      <c r="J16" s="100"/>
-      <c r="K16" s="100"/>
-      <c r="L16" s="101"/>
-      <c r="M16" s="102"/>
-      <c r="N16" s="103"/>
-    </row>
-    <row r="17" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B17" s="4">
-        <v>11</v>
-      </c>
-      <c r="C17" s="49"/>
-      <c r="D17" s="4"/>
-      <c r="E17" s="4"/>
-      <c r="I17" s="11"/>
-      <c r="J17" s="10"/>
-      <c r="K17" s="10"/>
-      <c r="L17" s="32"/>
-      <c r="M17" s="41"/>
-      <c r="N17" s="42"/>
-    </row>
-    <row r="18" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B18" s="4">
-        <v>12</v>
-      </c>
-      <c r="C18" s="49"/>
-      <c r="D18" s="4"/>
-      <c r="E18" s="4"/>
-      <c r="I18" s="11"/>
-      <c r="J18" s="10"/>
-      <c r="K18" s="10"/>
-      <c r="L18" s="32"/>
-      <c r="M18" s="41"/>
-      <c r="N18" s="42"/>
-    </row>
-    <row r="19" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B19" s="4">
-        <v>13</v>
-      </c>
-      <c r="C19" s="49"/>
-      <c r="D19" s="4"/>
-      <c r="E19" s="4"/>
-      <c r="I19" s="12"/>
-      <c r="J19" s="2"/>
-      <c r="K19" s="2"/>
-      <c r="L19" s="32"/>
-      <c r="M19" s="41"/>
-      <c r="N19" s="42"/>
-    </row>
-    <row r="20" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B20" s="4">
-        <v>14</v>
-      </c>
-      <c r="C20" s="49"/>
-      <c r="D20" s="4"/>
-      <c r="E20" s="4"/>
-    </row>
-    <row r="21" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B21" s="4">
-        <v>15</v>
-      </c>
-      <c r="C21" s="49"/>
-      <c r="D21" s="4"/>
-      <c r="E21" s="4"/>
-    </row>
-    <row r="23" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="D23" t="s">
-        <v>35</v>
-      </c>
-      <c r="F23" s="38"/>
-      <c r="G23" s="38"/>
+      <c r="F23" s="87"/>
+      <c r="G23" s="87"/>
     </row>
   </sheetData>
   <mergeCells count="29">
+    <mergeCell ref="M15:N15"/>
+    <mergeCell ref="F23:G23"/>
+    <mergeCell ref="M16:N16"/>
+    <mergeCell ref="M17:N17"/>
+    <mergeCell ref="M18:N18"/>
+    <mergeCell ref="M19:N19"/>
+    <mergeCell ref="M13:N13"/>
+    <mergeCell ref="M14:N14"/>
+    <mergeCell ref="M8:N8"/>
+    <mergeCell ref="M9:N9"/>
+    <mergeCell ref="J6:J7"/>
+    <mergeCell ref="M6:N6"/>
+    <mergeCell ref="K6:L6"/>
+    <mergeCell ref="M7:N7"/>
+    <mergeCell ref="I5:N5"/>
+    <mergeCell ref="I6:I7"/>
+    <mergeCell ref="M10:N10"/>
+    <mergeCell ref="M11:N11"/>
+    <mergeCell ref="M12:N12"/>
     <mergeCell ref="B1:E1"/>
     <mergeCell ref="C20:C21"/>
     <mergeCell ref="C7:C9"/>
@@ -2488,25 +2495,6 @@
     <mergeCell ref="C18:C19"/>
     <mergeCell ref="B3:G3"/>
     <mergeCell ref="B5:E5"/>
-    <mergeCell ref="I5:N5"/>
-    <mergeCell ref="I6:I7"/>
-    <mergeCell ref="M10:N10"/>
-    <mergeCell ref="M11:N11"/>
-    <mergeCell ref="M12:N12"/>
-    <mergeCell ref="M13:N13"/>
-    <mergeCell ref="M14:N14"/>
-    <mergeCell ref="M8:N8"/>
-    <mergeCell ref="M9:N9"/>
-    <mergeCell ref="J6:J7"/>
-    <mergeCell ref="M6:N6"/>
-    <mergeCell ref="K6:L6"/>
-    <mergeCell ref="M7:N7"/>
-    <mergeCell ref="F23:G23"/>
-    <mergeCell ref="M16:N16"/>
-    <mergeCell ref="M17:N17"/>
-    <mergeCell ref="M18:N18"/>
-    <mergeCell ref="M19:N19"/>
-    <mergeCell ref="M15:N15"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2520,489 +2508,524 @@
   <dimension ref="B1:N30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F30" sqref="F30"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="30.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7" customWidth="1"/>
-    <col min="6" max="6" width="5.5703125" customWidth="1"/>
-    <col min="7" max="7" width="9.42578125" customWidth="1"/>
-    <col min="9" max="9" width="10" customWidth="1"/>
-    <col min="10" max="10" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="12.140625" customWidth="1"/>
-    <col min="12" max="12" width="18.140625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="23.28515625" customWidth="1"/>
-    <col min="14" max="14" width="9.42578125" customWidth="1"/>
+    <col min="1" max="1" width="9.140625" style="67"/>
+    <col min="2" max="2" width="11.28515625" style="67" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.7109375" style="67" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="30.140625" style="67" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7" style="67" customWidth="1"/>
+    <col min="6" max="6" width="5.5703125" style="67" customWidth="1"/>
+    <col min="7" max="7" width="9.42578125" style="67" customWidth="1"/>
+    <col min="8" max="8" width="9.140625" style="67"/>
+    <col min="9" max="9" width="10" style="67" customWidth="1"/>
+    <col min="10" max="10" width="10.140625" style="67" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.140625" style="67" customWidth="1"/>
+    <col min="12" max="12" width="18.140625" style="67" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="23.28515625" style="67" customWidth="1"/>
+    <col min="14" max="14" width="16.28515625" style="67" customWidth="1"/>
+    <col min="15" max="16384" width="9.140625" style="67"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B1" s="34" t="s">
+      <c r="B1" s="64" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="35"/>
-      <c r="D1" s="35"/>
-      <c r="E1" s="36"/>
+      <c r="C1" s="65"/>
+      <c r="D1" s="65"/>
+      <c r="E1" s="66"/>
     </row>
     <row r="3" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B3" s="108" t="s">
+      <c r="B3" s="46" t="s">
+        <v>83</v>
+      </c>
+      <c r="C3" s="82"/>
+      <c r="D3" s="82"/>
+      <c r="E3" s="82"/>
+      <c r="F3" s="82"/>
+      <c r="G3" s="47"/>
+    </row>
+    <row r="5" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B5" s="83" t="s">
+        <v>32</v>
+      </c>
+      <c r="C5" s="83"/>
+      <c r="D5" s="83"/>
+      <c r="G5" s="84" t="s">
+        <v>33</v>
+      </c>
+      <c r="H5" s="84"/>
+      <c r="I5" s="84"/>
+      <c r="J5" s="84"/>
+      <c r="K5" s="84"/>
+      <c r="L5" s="84"/>
+      <c r="M5" s="84"/>
+      <c r="N5" s="84"/>
+    </row>
+    <row r="6" spans="2:14" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="45" t="s">
+        <v>34</v>
+      </c>
+      <c r="C6" s="45" t="s">
+        <v>22</v>
+      </c>
+      <c r="D6" s="45" t="s">
+        <v>32</v>
+      </c>
+      <c r="G6" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="H6" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="I6" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="J6" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="K6" s="34" t="s">
+        <v>27</v>
+      </c>
+      <c r="L6" s="35"/>
+      <c r="M6" s="24" t="s">
+        <v>28</v>
+      </c>
+      <c r="N6" s="35"/>
+    </row>
+    <row r="7" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B7" s="18">
+        <v>1</v>
+      </c>
+      <c r="C7" s="18" t="s">
+        <v>95</v>
+      </c>
+      <c r="D7" s="45" t="s">
+        <v>97</v>
+      </c>
+      <c r="G7" s="17"/>
+      <c r="H7" s="17"/>
+      <c r="I7" s="17"/>
+      <c r="J7" s="17"/>
+      <c r="K7" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="L7" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="M7" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="N7" s="35"/>
+    </row>
+    <row r="8" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B8" s="19"/>
+      <c r="C8" s="19"/>
+      <c r="D8" s="45" t="s">
+        <v>98</v>
+      </c>
+      <c r="G8" s="10">
+        <v>1</v>
+      </c>
+      <c r="H8" s="45">
+        <v>3</v>
+      </c>
+      <c r="I8" s="45">
+        <v>1</v>
+      </c>
+      <c r="J8" s="45" t="s">
+        <v>40</v>
+      </c>
+      <c r="K8" s="45" t="s">
+        <v>109</v>
+      </c>
+      <c r="L8" s="45" t="s">
+        <v>78</v>
+      </c>
+      <c r="M8" s="46" t="s">
+        <v>79</v>
+      </c>
+      <c r="N8" s="47"/>
+    </row>
+    <row r="9" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B9" s="19"/>
+      <c r="C9" s="19"/>
+      <c r="D9" s="45" t="s">
+        <v>99</v>
+      </c>
+      <c r="G9" s="10">
+        <v>2</v>
+      </c>
+      <c r="H9" s="45">
+        <v>10</v>
+      </c>
+      <c r="I9" s="45">
+        <v>2</v>
+      </c>
+      <c r="J9" s="45" t="s">
+        <v>40</v>
+      </c>
+      <c r="K9" s="45" t="s">
+        <v>110</v>
+      </c>
+      <c r="L9" s="45" t="s">
+        <v>78</v>
+      </c>
+      <c r="M9" s="46" t="s">
+        <v>116</v>
+      </c>
+      <c r="N9" s="47"/>
+    </row>
+    <row r="10" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B10" s="19"/>
+      <c r="C10" s="19"/>
+      <c r="D10" s="45" t="s">
+        <v>100</v>
+      </c>
+      <c r="G10" s="10">
+        <v>3</v>
+      </c>
+      <c r="H10" s="45">
+        <v>6</v>
+      </c>
+      <c r="I10" s="45">
+        <v>3</v>
+      </c>
+      <c r="J10" s="45" t="s">
+        <v>40</v>
+      </c>
+      <c r="K10" s="45" t="s">
+        <v>111</v>
+      </c>
+      <c r="L10" s="45" t="s">
+        <v>78</v>
+      </c>
+      <c r="M10" s="46" t="s">
+        <v>113</v>
+      </c>
+      <c r="N10" s="47"/>
+    </row>
+    <row r="11" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B11" s="19"/>
+      <c r="C11" s="19"/>
+      <c r="D11" s="45" t="s">
         <v>101</v>
       </c>
-      <c r="C3" s="52"/>
-      <c r="D3" s="52"/>
-      <c r="E3" s="52"/>
-      <c r="F3" s="52"/>
-      <c r="G3" s="53"/>
-    </row>
-    <row r="5" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B5" s="64" t="s">
-        <v>36</v>
-      </c>
-      <c r="C5" s="64"/>
-      <c r="D5" s="64"/>
-      <c r="E5" s="3"/>
-      <c r="G5" s="55" t="s">
-        <v>37</v>
-      </c>
-      <c r="H5" s="55"/>
-      <c r="I5" s="55"/>
-      <c r="J5" s="55"/>
-      <c r="K5" s="55"/>
-      <c r="L5" s="55"/>
-      <c r="M5" s="55"/>
-      <c r="N5" s="55"/>
-    </row>
-    <row r="6" spans="2:14" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="E6" s="6"/>
-      <c r="G6" s="56" t="s">
-        <v>39</v>
-      </c>
-      <c r="H6" s="56" t="s">
+      <c r="G11" s="10">
+        <v>4</v>
+      </c>
+      <c r="H11" s="45">
+        <v>12</v>
+      </c>
+      <c r="I11" s="45">
+        <v>4</v>
+      </c>
+      <c r="J11" s="45" t="s">
         <v>40</v>
       </c>
-      <c r="I6" s="56" t="s">
-        <v>41</v>
-      </c>
-      <c r="J6" s="45" t="s">
-        <v>42</v>
-      </c>
-      <c r="K6" s="61" t="s">
-        <v>30</v>
-      </c>
-      <c r="L6" s="62"/>
-      <c r="M6" s="60" t="s">
-        <v>31</v>
-      </c>
-      <c r="N6" s="62"/>
-    </row>
-    <row r="7" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B7" s="50">
-        <v>1</v>
-      </c>
-      <c r="C7" s="66" t="s">
-        <v>68</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="G7" s="57"/>
-      <c r="H7" s="57"/>
-      <c r="I7" s="57"/>
-      <c r="J7" s="46"/>
-      <c r="K7" s="12" t="s">
-        <v>73</v>
-      </c>
-      <c r="L7" s="12" t="s">
-        <v>74</v>
-      </c>
-      <c r="M7" s="43" t="s">
-        <v>43</v>
-      </c>
-      <c r="N7" s="44"/>
-    </row>
-    <row r="8" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B8" s="65"/>
-      <c r="C8" s="67"/>
-      <c r="D8" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="G8" s="12">
-        <v>1</v>
-      </c>
-      <c r="H8" s="105">
-        <v>1</v>
-      </c>
-      <c r="I8" s="106">
-        <v>1</v>
-      </c>
-      <c r="J8" s="106" t="s">
-        <v>44</v>
-      </c>
-      <c r="K8" s="100" t="s">
-        <v>81</v>
-      </c>
-      <c r="L8" s="100" t="s">
-        <v>92</v>
-      </c>
-      <c r="M8" s="102" t="s">
-        <v>93</v>
-      </c>
-      <c r="N8" s="103"/>
-    </row>
-    <row r="9" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B9" s="65"/>
-      <c r="C9" s="67"/>
-      <c r="D9" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="G9" s="12">
+      <c r="K11" s="45" t="s">
+        <v>112</v>
+      </c>
+      <c r="L11" s="45" t="s">
+        <v>78</v>
+      </c>
+      <c r="M11" s="46" t="s">
+        <v>113</v>
+      </c>
+      <c r="N11" s="47"/>
+    </row>
+    <row r="12" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B12" s="20"/>
+      <c r="C12" s="20"/>
+      <c r="D12" s="45" t="s">
+        <v>102</v>
+      </c>
+      <c r="G12" s="10">
+        <v>5</v>
+      </c>
+      <c r="H12" s="45"/>
+      <c r="I12" s="45"/>
+      <c r="J12" s="45"/>
+      <c r="K12" s="45"/>
+      <c r="L12" s="45"/>
+      <c r="M12" s="46"/>
+      <c r="N12" s="47"/>
+    </row>
+    <row r="13" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B13" s="18">
         <v>2</v>
       </c>
-      <c r="H9" s="105">
+      <c r="C13" s="18" t="s">
+        <v>96</v>
+      </c>
+      <c r="D13" s="45" t="s">
+        <v>103</v>
+      </c>
+      <c r="G13" s="10">
         <v>6</v>
       </c>
-      <c r="I9" s="106">
-        <v>1</v>
-      </c>
-      <c r="J9" s="106" t="s">
-        <v>44</v>
-      </c>
-      <c r="K9" s="100" t="s">
-        <v>94</v>
-      </c>
-      <c r="L9" s="100" t="s">
-        <v>95</v>
-      </c>
-      <c r="M9" s="102" t="s">
-        <v>96</v>
-      </c>
-      <c r="N9" s="103"/>
-    </row>
-    <row r="10" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B10" s="65"/>
-      <c r="C10" s="67"/>
-      <c r="D10" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="G10" s="12">
+      <c r="H13" s="45"/>
+      <c r="I13" s="45"/>
+      <c r="J13" s="45"/>
+      <c r="K13" s="45"/>
+      <c r="L13" s="45"/>
+      <c r="M13" s="46"/>
+      <c r="N13" s="47"/>
+    </row>
+    <row r="14" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B14" s="19"/>
+      <c r="C14" s="19"/>
+      <c r="D14" s="45" t="s">
+        <v>104</v>
+      </c>
+      <c r="G14" s="10">
+        <v>7</v>
+      </c>
+      <c r="H14" s="45"/>
+      <c r="I14" s="45"/>
+      <c r="J14" s="45"/>
+      <c r="K14" s="45"/>
+      <c r="L14" s="45"/>
+      <c r="M14" s="46"/>
+      <c r="N14" s="47"/>
+    </row>
+    <row r="15" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B15" s="19"/>
+      <c r="C15" s="19"/>
+      <c r="D15" s="45" t="s">
+        <v>106</v>
+      </c>
+      <c r="G15" s="10">
+        <v>8</v>
+      </c>
+      <c r="H15" s="45"/>
+      <c r="I15" s="45"/>
+      <c r="J15" s="45"/>
+      <c r="K15" s="45"/>
+      <c r="L15" s="45"/>
+      <c r="M15" s="46"/>
+      <c r="N15" s="47"/>
+    </row>
+    <row r="16" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B16" s="19"/>
+      <c r="C16" s="19"/>
+      <c r="D16" s="45" t="s">
+        <v>105</v>
+      </c>
+      <c r="G16" s="10">
+        <v>9</v>
+      </c>
+      <c r="H16" s="45"/>
+      <c r="I16" s="45"/>
+      <c r="J16" s="45"/>
+      <c r="K16" s="45"/>
+      <c r="L16" s="45"/>
+      <c r="M16" s="46"/>
+      <c r="N16" s="47"/>
+    </row>
+    <row r="17" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B17" s="19"/>
+      <c r="C17" s="19"/>
+      <c r="D17" s="45" t="s">
+        <v>107</v>
+      </c>
+      <c r="G17" s="10">
+        <v>10</v>
+      </c>
+      <c r="H17" s="45"/>
+      <c r="I17" s="45"/>
+      <c r="J17" s="45"/>
+      <c r="K17" s="45"/>
+      <c r="L17" s="45"/>
+      <c r="M17" s="46"/>
+      <c r="N17" s="47"/>
+    </row>
+    <row r="18" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B18" s="20"/>
+      <c r="C18" s="20"/>
+      <c r="D18" s="45" t="s">
+        <v>108</v>
+      </c>
+      <c r="G18" s="10">
+        <v>11</v>
+      </c>
+      <c r="H18" s="45"/>
+      <c r="I18" s="45"/>
+      <c r="J18" s="45"/>
+      <c r="K18" s="45"/>
+      <c r="L18" s="45"/>
+      <c r="M18" s="46"/>
+      <c r="N18" s="47"/>
+    </row>
+    <row r="19" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B19" s="18">
         <v>3</v>
       </c>
-      <c r="H10" s="105">
-        <v>3</v>
-      </c>
-      <c r="I10" s="106">
-        <v>2</v>
-      </c>
-      <c r="J10" s="106" t="s">
-        <v>44</v>
-      </c>
-      <c r="K10" s="100" t="s">
-        <v>97</v>
-      </c>
-      <c r="L10" s="100" t="s">
-        <v>92</v>
-      </c>
-      <c r="M10" s="102" t="s">
-        <v>82</v>
-      </c>
-      <c r="N10" s="103"/>
-    </row>
-    <row r="11" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B11" s="65"/>
-      <c r="C11" s="67"/>
-      <c r="D11" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="G11" s="12">
+      <c r="C19" s="18"/>
+      <c r="D19" s="45"/>
+      <c r="G19" s="10">
+        <v>12</v>
+      </c>
+      <c r="H19" s="45"/>
+      <c r="I19" s="45"/>
+      <c r="J19" s="45"/>
+      <c r="K19" s="45"/>
+      <c r="L19" s="45"/>
+      <c r="M19" s="46"/>
+      <c r="N19" s="47"/>
+    </row>
+    <row r="20" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B20" s="19"/>
+      <c r="C20" s="19"/>
+      <c r="D20" s="45"/>
+      <c r="G20" s="10">
+        <v>13</v>
+      </c>
+      <c r="H20" s="45"/>
+      <c r="I20" s="45"/>
+      <c r="J20" s="45"/>
+      <c r="K20" s="45"/>
+      <c r="L20" s="45"/>
+      <c r="M20" s="46"/>
+      <c r="N20" s="47"/>
+    </row>
+    <row r="21" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B21" s="19"/>
+      <c r="C21" s="19"/>
+      <c r="D21" s="45"/>
+      <c r="G21" s="10">
+        <v>14</v>
+      </c>
+      <c r="H21" s="45"/>
+      <c r="I21" s="45"/>
+      <c r="J21" s="45"/>
+      <c r="K21" s="45"/>
+      <c r="L21" s="45"/>
+      <c r="M21" s="46"/>
+      <c r="N21" s="47"/>
+    </row>
+    <row r="22" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B22" s="19"/>
+      <c r="C22" s="19"/>
+      <c r="D22" s="45"/>
+      <c r="G22" s="10">
+        <v>15</v>
+      </c>
+      <c r="H22" s="45"/>
+      <c r="I22" s="45"/>
+      <c r="J22" s="45"/>
+      <c r="K22" s="45"/>
+      <c r="L22" s="45"/>
+      <c r="M22" s="46"/>
+      <c r="N22" s="47"/>
+    </row>
+    <row r="23" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B23" s="19"/>
+      <c r="C23" s="19"/>
+      <c r="D23" s="45"/>
+      <c r="G23" s="10">
+        <v>16</v>
+      </c>
+      <c r="H23" s="45"/>
+      <c r="I23" s="45"/>
+      <c r="J23" s="45"/>
+      <c r="K23" s="45"/>
+      <c r="L23" s="45"/>
+      <c r="M23" s="46"/>
+      <c r="N23" s="47"/>
+    </row>
+    <row r="24" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B24" s="20"/>
+      <c r="C24" s="20"/>
+      <c r="D24" s="45"/>
+      <c r="G24" s="10">
+        <v>17</v>
+      </c>
+      <c r="H24" s="45"/>
+      <c r="I24" s="45"/>
+      <c r="J24" s="45"/>
+      <c r="K24" s="45"/>
+      <c r="L24" s="45"/>
+      <c r="M24" s="46"/>
+      <c r="N24" s="47"/>
+    </row>
+    <row r="25" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B25" s="18">
         <v>4</v>
       </c>
-      <c r="H11" s="105">
-        <v>5</v>
-      </c>
-      <c r="I11" s="106">
-        <v>3</v>
-      </c>
-      <c r="J11" s="106" t="s">
-        <v>44</v>
-      </c>
-      <c r="K11" s="100" t="s">
-        <v>34</v>
-      </c>
-      <c r="L11" s="100" t="s">
-        <v>92</v>
-      </c>
-      <c r="M11" s="102" t="s">
-        <v>102</v>
-      </c>
-      <c r="N11" s="103"/>
-    </row>
-    <row r="12" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B12" s="51"/>
-      <c r="C12" s="68"/>
-      <c r="D12" s="2"/>
-      <c r="G12" s="12">
-        <v>5</v>
-      </c>
-      <c r="H12" s="105"/>
-      <c r="I12" s="106"/>
-      <c r="J12" s="106"/>
-      <c r="K12" s="100"/>
-      <c r="L12" s="100"/>
-      <c r="M12" s="102"/>
-      <c r="N12" s="103"/>
-    </row>
-    <row r="13" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B13" s="50">
-        <v>2</v>
-      </c>
-      <c r="C13" s="50" t="s">
-        <v>71</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="G13" s="12">
-        <v>6</v>
-      </c>
-      <c r="H13" s="105"/>
-      <c r="I13" s="106"/>
-      <c r="J13" s="106"/>
-      <c r="K13" s="100"/>
-      <c r="L13" s="100"/>
-      <c r="M13" s="102"/>
-      <c r="N13" s="103"/>
-    </row>
-    <row r="14" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B14" s="65"/>
-      <c r="C14" s="65"/>
-      <c r="D14" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="G14" s="12">
-        <v>7</v>
-      </c>
-      <c r="H14" s="105"/>
-      <c r="I14" s="106"/>
-      <c r="J14" s="106"/>
-      <c r="K14" s="100"/>
-      <c r="L14" s="100"/>
-      <c r="M14" s="102"/>
-      <c r="N14" s="103"/>
-    </row>
-    <row r="15" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B15" s="65"/>
-      <c r="C15" s="65"/>
-      <c r="D15" s="2"/>
-      <c r="G15" s="12">
-        <v>8</v>
-      </c>
-      <c r="H15" s="105"/>
-      <c r="I15" s="106"/>
-      <c r="J15" s="106"/>
-      <c r="K15" s="100"/>
-      <c r="L15" s="100"/>
-      <c r="M15" s="102"/>
-      <c r="N15" s="103"/>
-    </row>
-    <row r="16" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B16" s="65"/>
-      <c r="C16" s="65"/>
-      <c r="D16" s="2"/>
-      <c r="G16" s="12">
-        <v>9</v>
-      </c>
-      <c r="H16" s="105"/>
-      <c r="I16" s="106"/>
-      <c r="J16" s="106"/>
-      <c r="K16" s="100"/>
-      <c r="L16" s="100"/>
-      <c r="M16" s="102"/>
-      <c r="N16" s="103"/>
-    </row>
-    <row r="17" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B17" s="65"/>
-      <c r="C17" s="65"/>
-      <c r="D17" s="2"/>
-      <c r="G17" s="12">
-        <v>10</v>
-      </c>
-      <c r="H17" s="105"/>
-      <c r="I17" s="106"/>
-      <c r="J17" s="106"/>
-      <c r="K17" s="100"/>
-      <c r="L17" s="100"/>
-      <c r="M17" s="102"/>
-      <c r="N17" s="103"/>
-    </row>
-    <row r="18" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B18" s="51"/>
-      <c r="C18" s="51"/>
-      <c r="D18" s="2"/>
-      <c r="G18" s="12">
-        <v>11</v>
-      </c>
-      <c r="H18" s="105"/>
-      <c r="I18" s="106"/>
-      <c r="J18" s="106"/>
-      <c r="K18" s="100"/>
-      <c r="L18" s="100"/>
-      <c r="M18" s="102"/>
-      <c r="N18" s="103"/>
-    </row>
-    <row r="19" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B19" s="50">
-        <v>3</v>
-      </c>
-      <c r="C19" s="66"/>
-      <c r="D19" s="2"/>
-      <c r="G19" s="12">
-        <v>12</v>
-      </c>
-      <c r="H19" s="105"/>
-      <c r="I19" s="106"/>
-      <c r="J19" s="106"/>
-      <c r="K19" s="100"/>
-      <c r="L19" s="100"/>
-      <c r="M19" s="102"/>
-      <c r="N19" s="103"/>
-    </row>
-    <row r="20" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B20" s="65"/>
-      <c r="C20" s="67"/>
-      <c r="D20" s="2"/>
-      <c r="G20" s="12">
-        <v>13</v>
-      </c>
-      <c r="H20" s="105"/>
-      <c r="I20" s="106"/>
-      <c r="J20" s="106"/>
-      <c r="K20" s="100"/>
-      <c r="L20" s="100"/>
-      <c r="M20" s="102"/>
-      <c r="N20" s="103"/>
-    </row>
-    <row r="21" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B21" s="65"/>
-      <c r="C21" s="67"/>
-      <c r="D21" s="2"/>
-      <c r="G21" s="12">
-        <v>14</v>
-      </c>
-      <c r="H21" s="105"/>
-      <c r="I21" s="106"/>
-      <c r="J21" s="106"/>
-      <c r="K21" s="100"/>
-      <c r="L21" s="100"/>
-      <c r="M21" s="102"/>
-      <c r="N21" s="103"/>
-    </row>
-    <row r="22" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B22" s="65"/>
-      <c r="C22" s="67"/>
-      <c r="D22" s="2"/>
-      <c r="G22" s="12">
-        <v>15</v>
-      </c>
-      <c r="H22" s="105"/>
-      <c r="I22" s="106"/>
-      <c r="J22" s="106"/>
-      <c r="K22" s="100"/>
-      <c r="L22" s="100"/>
-      <c r="M22" s="102"/>
-      <c r="N22" s="103"/>
-    </row>
-    <row r="23" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B23" s="65"/>
-      <c r="C23" s="67"/>
-      <c r="D23" s="2"/>
-      <c r="G23" s="12">
-        <v>16</v>
-      </c>
-      <c r="H23" s="105"/>
-      <c r="I23" s="106"/>
-      <c r="J23" s="106"/>
-      <c r="K23" s="100"/>
-      <c r="L23" s="100"/>
-      <c r="M23" s="102"/>
-      <c r="N23" s="103"/>
-    </row>
-    <row r="24" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B24" s="51"/>
-      <c r="C24" s="68"/>
-      <c r="D24" s="2"/>
-      <c r="G24" s="12">
-        <v>17</v>
-      </c>
-      <c r="H24" s="105"/>
-      <c r="I24" s="106"/>
-      <c r="J24" s="106"/>
-      <c r="K24" s="100"/>
-      <c r="L24" s="100"/>
-      <c r="M24" s="102"/>
-      <c r="N24" s="103"/>
-    </row>
-    <row r="25" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B25" s="50">
-        <v>4</v>
-      </c>
-      <c r="C25" s="66"/>
-      <c r="D25" s="2"/>
-      <c r="G25" s="12">
+      <c r="C25" s="18"/>
+      <c r="D25" s="45"/>
+      <c r="G25" s="10">
         <v>18</v>
       </c>
-      <c r="H25" s="9"/>
-      <c r="I25" s="8"/>
-      <c r="J25" s="8"/>
-      <c r="K25" s="18"/>
-      <c r="L25" s="18"/>
-      <c r="M25" s="58"/>
-      <c r="N25" s="59"/>
+      <c r="H25" s="81"/>
+      <c r="I25" s="81"/>
+      <c r="J25" s="81"/>
+      <c r="K25" s="81"/>
+      <c r="L25" s="81"/>
+      <c r="M25" s="85"/>
+      <c r="N25" s="86"/>
     </row>
     <row r="26" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B26" s="65"/>
-      <c r="C26" s="67"/>
-      <c r="D26" s="2"/>
+      <c r="B26" s="19"/>
+      <c r="C26" s="19"/>
+      <c r="D26" s="45"/>
     </row>
     <row r="27" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B27" s="65"/>
-      <c r="C27" s="67"/>
-      <c r="D27" s="2"/>
+      <c r="B27" s="19"/>
+      <c r="C27" s="19"/>
+      <c r="D27" s="45"/>
     </row>
     <row r="28" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B28" s="65"/>
-      <c r="C28" s="67"/>
-      <c r="D28" s="2"/>
-      <c r="G28" s="38"/>
-      <c r="H28" s="38"/>
-      <c r="I28" s="63"/>
-      <c r="J28" s="63"/>
+      <c r="B28" s="19"/>
+      <c r="C28" s="19"/>
+      <c r="D28" s="45"/>
+      <c r="G28" s="87"/>
+      <c r="H28" s="87"/>
+      <c r="I28" s="87"/>
+      <c r="J28" s="87"/>
     </row>
     <row r="29" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B29" s="65"/>
-      <c r="C29" s="67"/>
-      <c r="D29" s="2"/>
-      <c r="I29" s="69"/>
-      <c r="J29" s="69"/>
+      <c r="B29" s="19"/>
+      <c r="C29" s="19"/>
+      <c r="D29" s="45"/>
+      <c r="I29" s="88"/>
+      <c r="J29" s="88"/>
     </row>
     <row r="30" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B30" s="51"/>
-      <c r="C30" s="68"/>
-      <c r="D30" s="2"/>
+      <c r="B30" s="20"/>
+      <c r="C30" s="20"/>
+      <c r="D30" s="45"/>
     </row>
   </sheetData>
   <mergeCells count="40">
+    <mergeCell ref="M19:N19"/>
+    <mergeCell ref="M20:N20"/>
+    <mergeCell ref="M21:N21"/>
+    <mergeCell ref="M13:N13"/>
+    <mergeCell ref="K6:L6"/>
+    <mergeCell ref="M10:N10"/>
+    <mergeCell ref="M11:N11"/>
+    <mergeCell ref="M12:N12"/>
+    <mergeCell ref="G28:H28"/>
+    <mergeCell ref="I28:J28"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="M6:N6"/>
+    <mergeCell ref="H6:H7"/>
+    <mergeCell ref="M25:N25"/>
+    <mergeCell ref="M14:N14"/>
+    <mergeCell ref="M15:N15"/>
+    <mergeCell ref="M22:N22"/>
+    <mergeCell ref="M23:N23"/>
+    <mergeCell ref="M24:N24"/>
+    <mergeCell ref="M16:N16"/>
+    <mergeCell ref="M17:N17"/>
+    <mergeCell ref="M18:N18"/>
+    <mergeCell ref="M8:N8"/>
+    <mergeCell ref="M9:N9"/>
     <mergeCell ref="B1:E1"/>
     <mergeCell ref="G6:G7"/>
     <mergeCell ref="I6:I7"/>
@@ -3019,30 +3042,6 @@
     <mergeCell ref="G5:N5"/>
     <mergeCell ref="B3:G3"/>
     <mergeCell ref="M7:N7"/>
-    <mergeCell ref="G28:H28"/>
-    <mergeCell ref="I28:J28"/>
-    <mergeCell ref="B5:D5"/>
-    <mergeCell ref="M6:N6"/>
-    <mergeCell ref="H6:H7"/>
-    <mergeCell ref="M25:N25"/>
-    <mergeCell ref="M14:N14"/>
-    <mergeCell ref="M15:N15"/>
-    <mergeCell ref="M22:N22"/>
-    <mergeCell ref="M23:N23"/>
-    <mergeCell ref="M24:N24"/>
-    <mergeCell ref="M16:N16"/>
-    <mergeCell ref="M17:N17"/>
-    <mergeCell ref="M18:N18"/>
-    <mergeCell ref="M8:N8"/>
-    <mergeCell ref="M9:N9"/>
-    <mergeCell ref="M19:N19"/>
-    <mergeCell ref="M20:N20"/>
-    <mergeCell ref="M21:N21"/>
-    <mergeCell ref="M13:N13"/>
-    <mergeCell ref="K6:L6"/>
-    <mergeCell ref="M10:N10"/>
-    <mergeCell ref="M11:N11"/>
-    <mergeCell ref="M12:N12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -3055,418 +3054,465 @@
   <sheetPr>
     <tabColor theme="7" tint="-0.249977111117893"/>
   </sheetPr>
-  <dimension ref="B1:Q23"/>
+  <dimension ref="B1:P19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="N10" sqref="N10"/>
+      <selection activeCell="O22" sqref="O22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="6" max="6" width="13" customWidth="1"/>
-    <col min="8" max="8" width="9.85546875" customWidth="1"/>
-    <col min="9" max="9" width="30.28515625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.85546875" customWidth="1"/>
+    <col min="1" max="5" width="9.140625" style="67"/>
+    <col min="6" max="6" width="13" style="67" customWidth="1"/>
+    <col min="7" max="7" width="9.140625" style="67"/>
+    <col min="8" max="8" width="9.85546875" style="67" customWidth="1"/>
+    <col min="9" max="9" width="35.28515625" style="67" customWidth="1"/>
+    <col min="10" max="10" width="32.140625" style="67" customWidth="1"/>
+    <col min="11" max="16384" width="9.140625" style="67"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B1" s="34" t="s">
+    <row r="1" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B1" s="64" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="35"/>
-      <c r="D1" s="35"/>
-      <c r="E1" s="36"/>
-    </row>
-    <row r="3" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B3" s="97" t="s">
+      <c r="C1" s="65"/>
+      <c r="D1" s="65"/>
+      <c r="E1" s="66"/>
+    </row>
+    <row r="3" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B3" s="68" t="s">
+        <v>41</v>
+      </c>
+      <c r="C3" s="68"/>
+      <c r="D3" s="68"/>
+      <c r="E3" s="68"/>
+      <c r="F3" s="68"/>
+      <c r="G3" s="68"/>
+      <c r="H3" s="68"/>
+      <c r="I3" s="68"/>
+      <c r="J3" s="68"/>
+    </row>
+    <row r="4" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B4" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="C4" s="21" t="s">
+        <v>43</v>
+      </c>
+      <c r="D4" s="29" t="s">
+        <v>44</v>
+      </c>
+      <c r="E4" s="16" t="s">
         <v>45</v>
       </c>
-      <c r="C3" s="97"/>
-      <c r="D3" s="97"/>
-      <c r="E3" s="97"/>
-      <c r="F3" s="97"/>
-      <c r="G3" s="97"/>
-      <c r="H3" s="97"/>
-      <c r="I3" s="97"/>
-      <c r="J3" s="97"/>
-    </row>
-    <row r="4" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B4" s="56" t="s">
+      <c r="F4" s="34" t="s">
+        <v>27</v>
+      </c>
+      <c r="G4" s="34"/>
+      <c r="H4" s="35"/>
+      <c r="I4" s="26" t="s">
+        <v>28</v>
+      </c>
+      <c r="J4" s="26"/>
+    </row>
+    <row r="5" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B5" s="23"/>
+      <c r="C5" s="22"/>
+      <c r="D5" s="36"/>
+      <c r="E5" s="23"/>
+      <c r="F5" s="37" t="s">
+        <v>68</v>
+      </c>
+      <c r="G5" s="38" t="s">
+        <v>69</v>
+      </c>
+      <c r="H5" s="39"/>
+      <c r="I5" s="37" t="s">
+        <v>29</v>
+      </c>
+      <c r="J5" s="37" t="s">
         <v>46</v>
       </c>
-      <c r="C4" s="95" t="s">
+    </row>
+    <row r="6" spans="2:16" ht="46.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="40">
+        <v>1</v>
+      </c>
+      <c r="C6" s="41" t="s">
         <v>47</v>
       </c>
-      <c r="D4" s="86" t="s">
+      <c r="D6" s="42" t="s">
         <v>48</v>
       </c>
-      <c r="E4" s="45" t="s">
-        <v>49</v>
-      </c>
-      <c r="F4" s="48" t="s">
-        <v>30</v>
-      </c>
-      <c r="G4" s="48"/>
-      <c r="H4" s="44"/>
-      <c r="I4" s="47" t="s">
-        <v>31</v>
-      </c>
-      <c r="J4" s="47"/>
-    </row>
-    <row r="5" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="85"/>
-      <c r="C5" s="96"/>
-      <c r="D5" s="87"/>
-      <c r="E5" s="94"/>
-      <c r="F5" s="15" t="s">
-        <v>73</v>
-      </c>
-      <c r="G5" s="92" t="s">
-        <v>74</v>
-      </c>
-      <c r="H5" s="93"/>
-      <c r="I5" s="15" t="s">
-        <v>32</v>
-      </c>
-      <c r="J5" s="15" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="6" spans="2:10" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="13">
-        <v>1</v>
-      </c>
-      <c r="C6" s="83" t="s">
-        <v>51</v>
-      </c>
-      <c r="D6" s="113" t="s">
-        <v>52</v>
-      </c>
-      <c r="E6" s="114" t="s">
-        <v>108</v>
-      </c>
-      <c r="F6" s="111" t="s">
-        <v>81</v>
-      </c>
-      <c r="G6" s="115" t="s">
-        <v>75</v>
-      </c>
-      <c r="H6" s="116"/>
-      <c r="I6" s="117" t="s">
-        <v>75</v>
-      </c>
-      <c r="J6" s="114" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="7" spans="2:10" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="7">
+      <c r="E6" s="9" t="s">
+        <v>114</v>
+      </c>
+      <c r="F6" s="45" t="s">
+        <v>109</v>
+      </c>
+      <c r="G6" s="97" t="s">
+        <v>78</v>
+      </c>
+      <c r="H6" s="98"/>
+      <c r="I6" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="J6" s="9" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="7" spans="2:16" ht="45.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="43">
         <f>B6+1</f>
         <v>2</v>
       </c>
-      <c r="C7" s="83"/>
-      <c r="D7" s="118" t="s">
-        <v>53</v>
-      </c>
-      <c r="E7" s="105" t="s">
-        <v>33</v>
-      </c>
-      <c r="F7" s="100" t="s">
-        <v>83</v>
-      </c>
-      <c r="G7" s="115" t="s">
-        <v>75</v>
-      </c>
-      <c r="H7" s="116"/>
-      <c r="I7" s="100" t="s">
-        <v>105</v>
-      </c>
-      <c r="J7" s="105" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="8" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B8" s="7">
+      <c r="C7" s="41"/>
+      <c r="D7" s="44" t="s">
+        <v>49</v>
+      </c>
+      <c r="E7" s="45" t="s">
+        <v>30</v>
+      </c>
+      <c r="F7" s="45" t="s">
+        <v>76</v>
+      </c>
+      <c r="G7" s="70" t="s">
+        <v>70</v>
+      </c>
+      <c r="H7" s="71"/>
+      <c r="I7" s="45" t="s">
+        <v>93</v>
+      </c>
+      <c r="J7" s="45" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="8" spans="2:16" ht="30" x14ac:dyDescent="0.25">
+      <c r="B8" s="43">
         <f t="shared" ref="B8:B13" si="0">B7+1</f>
         <v>3</v>
       </c>
-      <c r="C8" s="83"/>
-      <c r="D8" s="118" t="s">
-        <v>104</v>
-      </c>
-      <c r="E8" s="105" t="s">
-        <v>55</v>
-      </c>
-      <c r="F8" s="100">
+      <c r="C8" s="41"/>
+      <c r="D8" s="44" t="s">
+        <v>86</v>
+      </c>
+      <c r="E8" s="45" t="s">
+        <v>30</v>
+      </c>
+      <c r="F8" s="45">
         <v>5</v>
       </c>
-      <c r="G8" s="102" t="s">
-        <v>75</v>
-      </c>
-      <c r="H8" s="103"/>
-      <c r="I8" s="112" t="s">
-        <v>106</v>
-      </c>
-      <c r="J8" s="112" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="9" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B9" s="7">
+      <c r="G8" s="46" t="s">
+        <v>70</v>
+      </c>
+      <c r="H8" s="47"/>
+      <c r="I8" s="67" t="s">
+        <v>87</v>
+      </c>
+      <c r="J8" s="67" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="9" spans="2:16" ht="45" x14ac:dyDescent="0.25">
+      <c r="B9" s="43">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="C9" s="83"/>
-      <c r="D9" s="118" t="s">
-        <v>107</v>
-      </c>
-      <c r="E9" s="105" t="s">
-        <v>33</v>
-      </c>
-      <c r="F9" s="111" t="s">
-        <v>81</v>
-      </c>
-      <c r="G9" s="119" t="s">
-        <v>84</v>
-      </c>
-      <c r="H9" s="120"/>
-      <c r="I9" s="105" t="s">
-        <v>106</v>
-      </c>
-      <c r="J9" s="105" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="10" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B10" s="7">
+      <c r="C9" s="41"/>
+      <c r="D9" s="44" t="s">
+        <v>88</v>
+      </c>
+      <c r="E9" s="45" t="s">
+        <v>30</v>
+      </c>
+      <c r="F9" s="69" t="s">
+        <v>75</v>
+      </c>
+      <c r="G9" s="46" t="s">
+        <v>77</v>
+      </c>
+      <c r="H9" s="47"/>
+      <c r="I9" s="45" t="s">
+        <v>87</v>
+      </c>
+      <c r="J9" s="45" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="10" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B10" s="43">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="C10" s="83"/>
-      <c r="D10" s="118" t="s">
-        <v>33</v>
-      </c>
-      <c r="E10" s="105" t="s">
-        <v>54</v>
-      </c>
-      <c r="F10" s="100" t="s">
-        <v>97</v>
-      </c>
-      <c r="G10" s="102" t="s">
-        <v>92</v>
-      </c>
-      <c r="H10" s="103"/>
-      <c r="I10" s="100" t="s">
-        <v>82</v>
-      </c>
-      <c r="J10" s="105" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="11" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B11" s="7">
+      <c r="C10" s="41"/>
+      <c r="D10" s="44" t="s">
+        <v>30</v>
+      </c>
+      <c r="E10" s="45" t="s">
+        <v>115</v>
+      </c>
+      <c r="F10" s="45" t="s">
+        <v>110</v>
+      </c>
+      <c r="G10" s="46" t="s">
+        <v>78</v>
+      </c>
+      <c r="H10" s="47"/>
+      <c r="I10" s="45" t="s">
+        <v>116</v>
+      </c>
+      <c r="J10" s="45" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="11" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B11" s="43">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="C11" s="83"/>
-      <c r="D11" s="118"/>
-      <c r="E11" s="105"/>
-      <c r="F11" s="100"/>
-      <c r="G11" s="102"/>
-      <c r="H11" s="103"/>
-      <c r="I11" s="100"/>
-      <c r="J11" s="105"/>
-    </row>
-    <row r="12" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B12" s="7">
+      <c r="C11" s="41"/>
+      <c r="D11" s="44" t="s">
+        <v>30</v>
+      </c>
+      <c r="E11" s="45" t="s">
+        <v>50</v>
+      </c>
+      <c r="F11" s="45" t="s">
+        <v>111</v>
+      </c>
+      <c r="G11" s="46" t="s">
+        <v>78</v>
+      </c>
+      <c r="H11" s="47"/>
+      <c r="I11" s="45" t="s">
+        <v>113</v>
+      </c>
+      <c r="J11" s="45" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="12" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="43">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="C12" s="83"/>
-      <c r="D12" s="118"/>
-      <c r="E12" s="105"/>
-      <c r="F12" s="100"/>
-      <c r="G12" s="102"/>
-      <c r="H12" s="103"/>
-      <c r="I12" s="100"/>
-      <c r="J12" s="105"/>
-    </row>
-    <row r="13" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="14">
+      <c r="C12" s="41"/>
+      <c r="D12" s="44"/>
+      <c r="E12" s="45" t="s">
+        <v>51</v>
+      </c>
+      <c r="F12" s="45" t="s">
+        <v>112</v>
+      </c>
+      <c r="G12" s="46" t="s">
+        <v>78</v>
+      </c>
+      <c r="H12" s="47"/>
+      <c r="I12" s="45" t="s">
+        <v>113</v>
+      </c>
+      <c r="J12" s="45" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="13" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B13" s="48">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="C13" s="84"/>
-      <c r="D13" s="121"/>
-      <c r="E13" s="122"/>
-      <c r="F13" s="122"/>
-      <c r="G13" s="123"/>
-      <c r="H13" s="124"/>
-      <c r="I13" s="122"/>
-      <c r="J13" s="122"/>
-    </row>
-    <row r="14" spans="2:10" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="16"/>
-      <c r="C14" s="16"/>
-      <c r="D14" s="17"/>
-      <c r="E14" s="16"/>
-      <c r="F14" s="16"/>
-      <c r="G14" s="16"/>
-      <c r="H14" s="16"/>
-      <c r="I14" s="16"/>
-      <c r="J14" s="16"/>
-    </row>
-    <row r="15" spans="2:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="16" t="s">
+      <c r="C13" s="49"/>
+      <c r="D13" s="50"/>
+      <c r="E13" s="51"/>
+      <c r="F13" s="51"/>
+      <c r="G13" s="52"/>
+      <c r="H13" s="53"/>
+      <c r="I13" s="51"/>
+      <c r="J13" s="51"/>
+    </row>
+    <row r="14" spans="2:16" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="B14" s="54"/>
+      <c r="C14" s="54"/>
+      <c r="D14" s="55"/>
+      <c r="E14" s="54"/>
+      <c r="F14" s="54"/>
+      <c r="G14" s="54"/>
+      <c r="H14" s="54"/>
+      <c r="I14" s="54"/>
+      <c r="J14" s="54"/>
+    </row>
+    <row r="15" spans="2:16" ht="14.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C15" s="54"/>
+      <c r="D15" s="55"/>
+      <c r="E15" s="54"/>
+      <c r="F15" s="72"/>
+      <c r="G15" s="73"/>
+      <c r="H15" s="73"/>
+      <c r="I15" s="72"/>
+    </row>
+    <row r="16" spans="2:16" ht="30.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="B16" s="54" t="s">
+        <v>52</v>
+      </c>
+      <c r="C16" s="56" t="s">
+        <v>53</v>
+      </c>
+      <c r="D16" s="57"/>
+      <c r="E16" s="57"/>
+      <c r="F16" s="58"/>
+      <c r="G16" s="59" t="s">
+        <v>54</v>
+      </c>
+      <c r="H16" s="56" t="s">
+        <v>55</v>
+      </c>
+      <c r="I16" s="60"/>
+      <c r="J16" s="57"/>
+      <c r="K16" s="57"/>
+      <c r="L16" s="58"/>
+      <c r="M16" s="56" t="s">
         <v>56</v>
       </c>
-      <c r="C15" s="16"/>
-      <c r="D15" s="17"/>
-      <c r="E15" s="16"/>
-      <c r="F15" s="5"/>
-      <c r="G15" s="82"/>
-      <c r="H15" s="82"/>
-      <c r="I15" s="5"/>
-    </row>
-    <row r="18" spans="3:17" ht="14.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="N18" s="5"/>
-    </row>
-    <row r="19" spans="3:17" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="D19" s="72" t="s">
+      <c r="N16" s="60"/>
+      <c r="O16" s="57"/>
+      <c r="P16" s="58"/>
+    </row>
+    <row r="17" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B17" s="24" t="s">
+        <v>43</v>
+      </c>
+      <c r="C17" s="25" t="s">
         <v>57</v>
       </c>
-      <c r="E19" s="74"/>
-      <c r="F19" s="74"/>
-      <c r="G19" s="75"/>
-      <c r="H19" s="21" t="s">
+      <c r="D17" s="26" t="s">
         <v>58</v>
       </c>
-      <c r="I19" s="72" t="s">
+      <c r="E17" s="26" t="s">
+        <v>85</v>
+      </c>
+      <c r="F17" s="27" t="s">
+        <v>60</v>
+      </c>
+      <c r="G17" s="32" t="s">
+        <v>61</v>
+      </c>
+      <c r="H17" s="28" t="s">
+        <v>62</v>
+      </c>
+      <c r="I17" s="29"/>
+      <c r="J17" s="26" t="s">
+        <v>57</v>
+      </c>
+      <c r="K17" s="26" t="s">
+        <v>58</v>
+      </c>
+      <c r="L17" s="27" t="s">
         <v>59</v>
       </c>
-      <c r="J19" s="73"/>
-      <c r="K19" s="74"/>
-      <c r="L19" s="74"/>
-      <c r="M19" s="75"/>
-      <c r="N19" s="72" t="s">
-        <v>60</v>
-      </c>
-      <c r="O19" s="73"/>
-      <c r="P19" s="74"/>
-      <c r="Q19" s="75"/>
-    </row>
-    <row r="20" spans="3:17" x14ac:dyDescent="0.25">
-      <c r="C20" s="90" t="s">
+      <c r="M17" s="61" t="s">
+        <v>62</v>
+      </c>
+      <c r="N17" s="26" t="s">
+        <v>57</v>
+      </c>
+      <c r="O17" s="26" t="s">
+        <v>58</v>
+      </c>
+      <c r="P17" s="27" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="18" spans="2:16" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B18" s="24"/>
+      <c r="C18" s="25"/>
+      <c r="D18" s="26"/>
+      <c r="E18" s="26"/>
+      <c r="F18" s="27"/>
+      <c r="G18" s="33"/>
+      <c r="H18" s="30"/>
+      <c r="I18" s="31"/>
+      <c r="J18" s="26"/>
+      <c r="K18" s="26"/>
+      <c r="L18" s="27"/>
+      <c r="M18" s="62"/>
+      <c r="N18" s="26"/>
+      <c r="O18" s="26"/>
+      <c r="P18" s="27"/>
+    </row>
+    <row r="19" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B19" s="63" t="s">
         <v>47</v>
       </c>
-      <c r="D20" s="91" t="s">
-        <v>61</v>
-      </c>
-      <c r="E20" s="70" t="s">
-        <v>62</v>
-      </c>
-      <c r="F20" s="70" t="s">
-        <v>103</v>
-      </c>
-      <c r="G20" s="71" t="s">
-        <v>64</v>
-      </c>
-      <c r="H20" s="109" t="s">
-        <v>65</v>
-      </c>
-      <c r="I20" s="78" t="s">
-        <v>66</v>
-      </c>
-      <c r="J20" s="79"/>
-      <c r="K20" s="70" t="s">
-        <v>61</v>
-      </c>
-      <c r="L20" s="70" t="s">
-        <v>62</v>
-      </c>
-      <c r="M20" s="71" t="s">
-        <v>63</v>
-      </c>
-      <c r="N20" s="76" t="s">
-        <v>66</v>
-      </c>
-      <c r="O20" s="70" t="s">
-        <v>61</v>
-      </c>
-      <c r="P20" s="70" t="s">
-        <v>62</v>
-      </c>
-      <c r="Q20" s="71" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="21" spans="3:17" x14ac:dyDescent="0.25">
-      <c r="C21" s="90"/>
-      <c r="D21" s="91"/>
-      <c r="E21" s="70"/>
-      <c r="F21" s="70"/>
-      <c r="G21" s="71"/>
-      <c r="H21" s="110"/>
-      <c r="I21" s="80"/>
-      <c r="J21" s="81"/>
-      <c r="K21" s="70"/>
-      <c r="L21" s="70"/>
-      <c r="M21" s="71"/>
-      <c r="N21" s="77"/>
-      <c r="O21" s="70"/>
-      <c r="P21" s="70"/>
-      <c r="Q21" s="71"/>
-    </row>
-    <row r="22" spans="3:17" x14ac:dyDescent="0.25">
-      <c r="C22" s="24" t="s">
-        <v>51</v>
-      </c>
-      <c r="D22" s="20">
-        <v>5</v>
-      </c>
-      <c r="E22" s="22">
-        <v>5</v>
-      </c>
-      <c r="F22" s="22">
+      <c r="C19" s="74">
+        <v>7</v>
+      </c>
+      <c r="D19" s="75">
+        <v>6</v>
+      </c>
+      <c r="E19" s="75">
+        <v>1</v>
+      </c>
+      <c r="F19" s="76">
+        <v>1</v>
+      </c>
+      <c r="G19" s="77">
+        <v>1</v>
+      </c>
+      <c r="H19" s="78" t="s">
+        <v>94</v>
+      </c>
+      <c r="I19" s="79"/>
+      <c r="J19" s="45">
+        <v>1</v>
+      </c>
+      <c r="K19" s="75">
+        <v>1</v>
+      </c>
+      <c r="L19" s="76">
         <v>0</v>
       </c>
-      <c r="G22" s="23">
+      <c r="M19" s="80" t="s">
+        <v>94</v>
+      </c>
+      <c r="N19" s="45">
+        <v>6</v>
+      </c>
+      <c r="O19" s="75">
+        <v>6</v>
+      </c>
+      <c r="P19" s="76">
         <v>0</v>
       </c>
-      <c r="H22" s="26">
-        <v>0</v>
-      </c>
-      <c r="I22" s="88" t="s">
-        <v>67</v>
-      </c>
-      <c r="J22" s="89"/>
-      <c r="K22" s="2">
-        <v>0</v>
-      </c>
-      <c r="L22" s="22">
-        <v>0</v>
-      </c>
-      <c r="M22" s="23">
-        <v>0</v>
-      </c>
-      <c r="N22" s="25" t="s">
-        <v>67</v>
-      </c>
-      <c r="O22" s="2">
-        <v>0</v>
-      </c>
-      <c r="P22" s="22">
-        <v>0</v>
-      </c>
-      <c r="Q22" s="23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="3:17" x14ac:dyDescent="0.25">
-      <c r="N23" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="37">
+    <mergeCell ref="O17:O18"/>
+    <mergeCell ref="P17:P18"/>
+    <mergeCell ref="M16:P16"/>
+    <mergeCell ref="M17:M18"/>
+    <mergeCell ref="N17:N18"/>
+    <mergeCell ref="J17:J18"/>
+    <mergeCell ref="C16:F16"/>
+    <mergeCell ref="H16:L16"/>
+    <mergeCell ref="H17:I18"/>
+    <mergeCell ref="G17:G18"/>
+    <mergeCell ref="K17:K18"/>
+    <mergeCell ref="L17:L18"/>
+    <mergeCell ref="G15:H15"/>
+    <mergeCell ref="C6:C13"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="D4:D5"/>
+    <mergeCell ref="H19:I19"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="C17:C18"/>
+    <mergeCell ref="D17:D18"/>
+    <mergeCell ref="E17:E18"/>
+    <mergeCell ref="F17:F18"/>
+    <mergeCell ref="G12:H12"/>
+    <mergeCell ref="G11:H11"/>
+    <mergeCell ref="G9:H9"/>
+    <mergeCell ref="G10:H10"/>
+    <mergeCell ref="G13:H13"/>
+    <mergeCell ref="G7:H7"/>
     <mergeCell ref="G6:H6"/>
     <mergeCell ref="G8:H8"/>
     <mergeCell ref="B1:E1"/>
@@ -3476,34 +3522,6 @@
     <mergeCell ref="E4:E5"/>
     <mergeCell ref="C4:C5"/>
     <mergeCell ref="B3:J3"/>
-    <mergeCell ref="G15:H15"/>
-    <mergeCell ref="C6:C13"/>
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="D4:D5"/>
-    <mergeCell ref="I22:J22"/>
-    <mergeCell ref="C20:C21"/>
-    <mergeCell ref="D20:D21"/>
-    <mergeCell ref="E20:E21"/>
-    <mergeCell ref="F20:F21"/>
-    <mergeCell ref="G20:G21"/>
-    <mergeCell ref="G12:H12"/>
-    <mergeCell ref="G11:H11"/>
-    <mergeCell ref="G9:H9"/>
-    <mergeCell ref="G10:H10"/>
-    <mergeCell ref="G13:H13"/>
-    <mergeCell ref="G7:H7"/>
-    <mergeCell ref="K20:K21"/>
-    <mergeCell ref="D19:G19"/>
-    <mergeCell ref="I19:M19"/>
-    <mergeCell ref="I20:J21"/>
-    <mergeCell ref="H20:H21"/>
-    <mergeCell ref="L20:L21"/>
-    <mergeCell ref="M20:M21"/>
-    <mergeCell ref="P20:P21"/>
-    <mergeCell ref="Q20:Q21"/>
-    <mergeCell ref="N19:Q19"/>
-    <mergeCell ref="N20:N21"/>
-    <mergeCell ref="O20:O21"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -3512,6 +3530,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100F5F472198D7887469049920058585067" ma:contentTypeVersion="4" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="5e76e8f6ca957e849a493f1baa4f4bb7">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="c46c0853-0d59-45c6-b517-3e25eac8cdf1" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="6ddeb00cc2097713d6f56fe4f26be38f" ns2:_="">
     <xsd:import namespace="c46c0853-0d59-45c6-b517-3e25eac8cdf1"/>
@@ -3655,22 +3688,24 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8B0A340A-7B8D-463A-B976-63A023B5D9BB}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C125791C-CFF3-4EED-94B5-3CF568D8D264}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{153A5999-B236-48B1-944C-C5EB94545735}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -3686,21 +3721,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C125791C-CFF3-4EED-94B5-3CF568D8D264}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8B0A340A-7B8D-463A-B976-63A023B5D9BB}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>